--- a/medicine/Autisme/Please_Stand_By/Please_Stand_By.xlsx
+++ b/medicine/Autisme/Please_Stand_By/Please_Stand_By.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Please Stand By est une comédie dramatique américaine réalisé en 2017. Après avoir été joué à de nombreux festivals, le film est sorti au cinéma et sur diverses plateformes de streaming le 26 janvier 2018.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jeune autiste s'échappe de son centre d'hébergement dans l'espoir de soumettre son scénario à un concours d'écriture à Hollywood. Sur le chemin elle devra conquérir un nouveau monde rempli d'obstacles.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Directeur de la photographie : Geoffrey Simpson</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans l'ordre d'apparence (du générique de fin) :
 Dakota Fanning : Wendy
